--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1036740.307468728</v>
+        <v>-1042602.627503908</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12989256.2720372</v>
+        <v>12988076.31325636</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>25.37638037794357</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>109.4723764597467</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226618</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>35.13685922633172</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>103.2799612666818</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>187.7934119428025</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>12.4868292067285</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>30.97591795592787</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226618</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>42.6383310217341</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>195.2176544501662</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.622722333612046</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>180.6681332420735</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.227688909249</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>137.7874891337426</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>106.4741046921188</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>32.13423848633171</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>6.857665447705794</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>51.98189029800175</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>104.9701587032708</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>193.0514104448546</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>92.0107704463003</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>21.69978920888061</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412933</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954283</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568062</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291036</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838915</v>
+        <v>24.17382596574998</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828928</v>
+        <v>52.06849973565011</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696767</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162031</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043176</v>
+        <v>70.57601873167843</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945460001</v>
+        <v>55.72314698196084</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643973</v>
+        <v>41.29686219380056</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931884</v>
+        <v>41.22330424667967</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908611</v>
+        <v>42.97275566644694</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147825</v>
+        <v>53.79159358883908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805029</v>
+        <v>41.14384575541112</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922222</v>
+        <v>18.98356133658305</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367814</v>
+        <v>9.882059701038969</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920546</v>
+        <v>88.00800320656629</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404474</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480635</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947761</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819.2282072223477</v>
+        <v>697.836036388565</v>
       </c>
       <c r="C2" t="n">
-        <v>793.5954997698794</v>
+        <v>697.836036388565</v>
       </c>
       <c r="D2" t="n">
-        <v>793.5954997698794</v>
+        <v>312.3949076052328</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698794</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F2" t="n">
-        <v>376.7010612998572</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282644</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475506</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="M2" t="n">
-        <v>1113.93863382782</v>
+        <v>588.4870060424364</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.749917465283</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465283</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596804</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737753</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737753</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737753</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297169</v>
+        <v>1685.148180317391</v>
       </c>
       <c r="U2" t="n">
-        <v>1951.282367297169</v>
+        <v>1429.39545075199</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.175558000688</v>
+        <v>1087.288641455508</v>
       </c>
       <c r="W2" t="n">
-        <v>1609.175558000688</v>
+        <v>1087.288641455508</v>
       </c>
       <c r="X2" t="n">
-        <v>1219.722952933745</v>
+        <v>697.836036388565</v>
       </c>
       <c r="Y2" t="n">
-        <v>1219.722952933745</v>
+        <v>697.836036388565</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.861642534786</v>
+        <v>556.1927859813188</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948782</v>
+        <v>405.538555541411</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163586</v>
+        <v>275.4495881628914</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272463</v>
+        <v>139.0030972737791</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103781</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822426</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284347</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475506</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>996.5377244563711</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466465</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466465</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182862</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737753</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635817</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535686</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734594</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413236</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416942</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757474</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.0686357961832</v>
+        <v>365.235851695399</v>
       </c>
       <c r="C4" t="n">
-        <v>332.0686357961832</v>
+        <v>365.235851695399</v>
       </c>
       <c r="D4" t="n">
-        <v>332.0686357961832</v>
+        <v>365.235851695399</v>
       </c>
       <c r="E4" t="n">
-        <v>332.0686357961832</v>
+        <v>365.235851695399</v>
       </c>
       <c r="F4" t="n">
-        <v>332.0686357961832</v>
+        <v>365.235851695399</v>
       </c>
       <c r="G4" t="n">
-        <v>332.0686357961832</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576772</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>840.6194887376389</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U4" t="n">
-        <v>555.1806969795399</v>
+        <v>550.4438703867003</v>
       </c>
       <c r="V4" t="n">
-        <v>555.1806969795399</v>
+        <v>550.4438703867003</v>
       </c>
       <c r="W4" t="n">
-        <v>555.1806969795399</v>
+        <v>550.4438703867003</v>
       </c>
       <c r="X4" t="n">
-        <v>555.1806969795399</v>
+        <v>550.4438703867003</v>
       </c>
       <c r="Y4" t="n">
-        <v>332.0686357961832</v>
+        <v>550.4438703867003</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>607.8495662439052</v>
+        <v>1263.279063078478</v>
       </c>
       <c r="C5" t="n">
-        <v>607.8495662439052</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="D5" t="n">
-        <v>607.8495662439052</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E5" t="n">
-        <v>607.8495662439052</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>190.955127773883</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035832</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1085.386573341139</v>
+        <v>936.6744981739582</v>
       </c>
       <c r="N5" t="n">
-        <v>1613.197856978601</v>
+        <v>1450.277176783647</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596804</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596804</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737753</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2162.170010943078</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S5" t="n">
-        <v>1995.656455884128</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="T5" t="n">
-        <v>1995.656455884128</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="U5" t="n">
-        <v>1739.903726318727</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="V5" t="n">
-        <v>1397.796917022245</v>
+        <v>1695.062614805964</v>
       </c>
       <c r="W5" t="n">
-        <v>1397.796917022245</v>
+        <v>1695.062614805964</v>
       </c>
       <c r="X5" t="n">
-        <v>1008.344311955302</v>
+        <v>1663.773808789875</v>
       </c>
       <c r="Y5" t="n">
-        <v>1008.344311955302</v>
+        <v>1663.773808789875</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.861642534786</v>
+        <v>556.1927859813188</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948782</v>
+        <v>405.538555541411</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163586</v>
+        <v>275.4495881628914</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272463</v>
+        <v>139.0030972737791</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103781</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822426</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284347</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591881</v>
+        <v>407.9705203262586</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591881</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182862</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182862</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737753</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635817</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535686</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734594</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413236</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784303</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757474</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475506</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>512.0340801548787</v>
+        <v>782.0260322255344</v>
       </c>
       <c r="W7" t="n">
-        <v>228.7036780860563</v>
+        <v>498.695630156712</v>
       </c>
       <c r="X7" t="n">
-        <v>228.7036780860563</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="Y7" t="n">
-        <v>228.7036780860563</v>
+        <v>41.50324675633848</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1199.996335360124</v>
+        <v>865.0483823832794</v>
       </c>
       <c r="C8" t="n">
-        <v>1199.996335360124</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="D8" t="n">
-        <v>1199.996335360124</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W8" t="n">
-        <v>1994.649470045468</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.196864978524</v>
+        <v>1265.543128094676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1208.706155899126</v>
+        <v>1265.543128094676</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>789.9441452600163</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>789.9441452600163</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>504.5053535019172</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="V10" t="n">
-        <v>504.5053535019172</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="W10" t="n">
-        <v>504.5053535019172</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="X10" t="n">
-        <v>270.4250312849002</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.22271816768</v>
+        <v>1888.485543579474</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1567.106317228598</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1253.46146359146</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>922.6742138541981</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>577.5760505303697</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>236.2095701645667</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2978.78027853915</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2978.78027853915</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2978.78027853915</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W11" t="n">
-        <v>2679.577518653632</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.921188732883</v>
+        <v>2541.878448077882</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732883</v>
+        <v>2217.184014144677</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.5526147385751</v>
+        <v>413.6570050786606</v>
       </c>
       <c r="C13" t="n">
-        <v>411.6256799429129</v>
+        <v>315.2481622908437</v>
       </c>
       <c r="D13" t="n">
-        <v>327.7888419916216</v>
+        <v>231.4113243395523</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916216</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922021</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.965602310116</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>905.7825322771341</v>
+        <v>741.8597555915625</v>
       </c>
       <c r="W13" t="n">
-        <v>694.2484053545056</v>
+        <v>689.352795694591</v>
       </c>
       <c r="X13" t="n">
-        <v>531.9643582836826</v>
+        <v>527.0687486237681</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.9643582836826</v>
+        <v>527.0687486237681</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.124554843851</v>
+        <v>1731.345859377172</v>
       </c>
       <c r="C14" t="n">
-        <v>1366.745328492976</v>
+        <v>1409.966633026296</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.100474855837</v>
+        <v>1096.321779389158</v>
       </c>
       <c r="E14" t="n">
-        <v>722.3132251185755</v>
+        <v>765.5345296518963</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>420.4363663280676</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341892</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2384.73876387558</v>
       </c>
       <c r="X14" t="n">
-        <v>1883.125979535624</v>
+        <v>2384.73876387558</v>
       </c>
       <c r="Y14" t="n">
-        <v>1688.124554843851</v>
+        <v>2060.044329942375</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>374.6989287590508</v>
+        <v>385.6496467242604</v>
       </c>
       <c r="C16" t="n">
-        <v>374.6989287590508</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="D16" t="n">
-        <v>290.8620908077594</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0995538131558</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131558</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208436</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1422.708948594409</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1258.786171908837</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>1045.143655296931</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>850.9605852639496</v>
+        <v>872.8795642628193</v>
       </c>
       <c r="W16" t="n">
-        <v>639.426458341321</v>
+        <v>661.3454373401908</v>
       </c>
       <c r="X16" t="n">
-        <v>639.426458341321</v>
+        <v>499.0613902693678</v>
       </c>
       <c r="Y16" t="n">
-        <v>488.1106723041582</v>
+        <v>499.0613902693678</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099319</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,19 +5680,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5759,10 +5759,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229859</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829235</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>318.9689542635005</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6160,13 +6160,13 @@
         <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,22 +6227,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,25 +6251,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>393.1040050097767</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1020.875654636458</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
@@ -6376,58 +6376,58 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878065</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222133</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463681</v>
+        <v>904.3560533993084</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057103</v>
+        <v>601.3807258108112</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230778</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189326</v>
+        <v>91.97314162835522</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.04615434972</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508754</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146217</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765615</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897137</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761244</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394127</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291779</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.5154531542</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282492</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>182.1918110717787</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>182.1918110717787</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>809.9634606984599</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965148</v>
+        <v>365.6713676929727</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918683</v>
+        <v>309.385360640487</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237473</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123141</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546514</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834612</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431951</v>
+        <v>86.73045008374216</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074061</v>
+        <v>261.0422972872698</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812059</v>
+        <v>536.8220577360523</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458913</v>
+        <v>723.1136360743163</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041705</v>
+        <v>906.3032701055256</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872948</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376597</v>
+        <v>1300.536323498795</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746648</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308589</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420503</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518101</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250203</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395547</v>
+        <v>835.7257283273696</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000967</v>
+        <v>666.3144371400722</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124441</v>
+        <v>546.1532258045804</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584517</v>
+        <v>436.9602755027489</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,7 +6959,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,13 +7208,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7260,13 +7260,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1634.317313094942</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,22 +7336,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7403,16 +7403,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7436,13 +7436,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,46 +7573,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343038</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655131</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296498</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7731,16 +7731,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.744905612751</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.52287682331</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485496</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>223.9579342020169</v>
+        <v>556.1230176353736</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,19 +8058,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>566.6052828203248</v>
+        <v>169.9272434827149</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886048</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321655</v>
+        <v>193.0266714680597</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O5" t="n">
-        <v>530.1088400687468</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269476</v>
+        <v>462.5560852512514</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>616.3484143223238</v>
       </c>
       <c r="M8" t="n">
-        <v>155.1237765063188</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9173,7 +9173,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>345.5977578821532</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,7 +9717,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>349.0412045852374</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>301.854937525337</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10428,16 +10428,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>203.3790190010273</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095477</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>117.494503443537</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
@@ -10671,7 +10671,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10680,10 +10680,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,16 +10908,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>324.3235533562099</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>436.6430951196083</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>491.4748860273814</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11379,19 +11379,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>463.967048082375</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>143.2898028423235</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>118.0530455351139</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>90.56708891223296</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>157.4368953554005</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>232.9826568588741</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.3960791490184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>5.413983913638432</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.0098213756636</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1139798.907308668</v>
+        <v>1139197.359694908</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1139798.907308668</v>
+        <v>1139197.359694908</v>
       </c>
     </row>
     <row r="4">
@@ -26314,10 +26314,10 @@
         <v>144265.7424746855</v>
       </c>
       <c r="C2" t="n">
+        <v>144265.7424746854</v>
+      </c>
+      <c r="D2" t="n">
         <v>144265.7424746855</v>
-      </c>
-      <c r="D2" t="n">
-        <v>144265.7424746854</v>
       </c>
       <c r="E2" t="n">
         <v>127487.2187395205</v>
@@ -26341,10 +26341,10 @@
         <v>144265.7424746851</v>
       </c>
       <c r="L2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746856</v>
       </c>
       <c r="M2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="N2" t="n">
         <v>144265.7424746854</v>
@@ -26353,7 +26353,7 @@
         <v>144265.7424746854</v>
       </c>
       <c r="P2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062159</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>47425.32553668198</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945028</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728534</v>
+        <v>62456.24177539668</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962292</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541664</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805099</v>
+        <v>99893.08150805101</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805101</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26436,16 +26436,16 @@
         <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,10 +26454,10 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001385</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001385</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173854</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293569.0133113511</v>
+        <v>-289819.1151108165</v>
       </c>
       <c r="C6" t="n">
-        <v>-111364.0650194948</v>
+        <v>-115960.4580767612</v>
       </c>
       <c r="D6" t="n">
-        <v>-117379.8666772681</v>
+        <v>-125116.1559006598</v>
       </c>
       <c r="E6" t="n">
-        <v>-137714.4439424156</v>
+        <v>-137924.1754891051</v>
       </c>
       <c r="F6" t="n">
-        <v>-25591.88246837106</v>
+        <v>-25801.61401506066</v>
       </c>
       <c r="G6" t="n">
-        <v>-108981.3503771494</v>
+        <v>-108981.3503771495</v>
       </c>
       <c r="H6" t="n">
-        <v>-61556.02484046747</v>
+        <v>-61556.02484046749</v>
       </c>
       <c r="I6" t="n">
-        <v>-61556.0248404675</v>
+        <v>-61556.02484046752</v>
       </c>
       <c r="J6" t="n">
-        <v>-274597.9424377535</v>
+        <v>-268081.6572831802</v>
       </c>
       <c r="K6" t="n">
         <v>-67795.79324325069</v>
       </c>
       <c r="L6" t="n">
-        <v>-122978.3821778715</v>
+        <v>-127027.2193883436</v>
       </c>
       <c r="M6" t="n">
-        <v>-103756.8543000904</v>
+        <v>-104808.5493112786</v>
       </c>
       <c r="N6" t="n">
-        <v>-61556.02484046755</v>
+        <v>-61556.02484046746</v>
       </c>
       <c r="O6" t="n">
-        <v>-89323.71888323873</v>
+        <v>-89323.71888323862</v>
       </c>
       <c r="P6" t="n">
-        <v>-61556.02484046735</v>
+        <v>-61556.02484046741</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344382</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344382</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="I4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>917.0607368443783</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443783</v>
+      </c>
+      <c r="L4" t="n">
+        <v>844.4391950293142</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014442</v>
-      </c>
-      <c r="I4" t="n">
-        <v>776.4890963014442</v>
-      </c>
-      <c r="J4" t="n">
-        <v>917.0607368443782</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443782</v>
-      </c>
-      <c r="L4" t="n">
-        <v>869.3443530095213</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>59.28165692085247</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660668</v>
+        <v>78.07030221924585</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551369</v>
+        <v>17.58004954287455</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344382</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485686</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773722</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407174</v>
+        <v>117.126871304279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>59.28165692085247</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344382</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485686</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>363.8673661041551</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>289.0853131748742</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343334</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863119</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27549,13 +27549,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27585,13 +27585,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130.0819000467664</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>94.79099189771551</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.12615537060478</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>354.5821610603459</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343334</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>185.1777423863119</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27825,22 +27825,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>68.10189727721783</v>
+        <v>104.0045570257511</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>387.8670759206709</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>204.8899457742002</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28023,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28059,13 +28059,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>43.56023407002712</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>144.7969147067754</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668742</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,19 +28989,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.01250026485194</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,16 +29299,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29317,7 +29317,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29542,22 +29542,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901232</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738833688</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>43.4950968316021</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254688</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>76.79385455031594</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,19 +30174,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634529465</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30408,25 +30408,25 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,13 +30654,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,43 +30852,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34699,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>74.23288260428964</v>
+        <v>406.3979660376463</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>474.2181607710129</v>
+        <v>77.540121433403</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344382</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344382</v>
+        <v>43.30161987033243</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O5" t="n">
-        <v>380.5450026446503</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776357</v>
+        <v>370.1689632019395</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="M8" t="n">
-        <v>5.39872490859157</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>316.4712935610698</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>260.2256450279866</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528348</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>259.444269251904</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>200.0587396437669</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500442</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101038</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36613,7 +36613,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>216.4828246711704</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>619.7932383009069</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261597</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682816</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.1759880394284</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458569</v>
+        <v>557.2643651184961</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792975</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>230.2077838426612</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>113.7820836676939</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553811</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279116</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868806</v>
+        <v>195.4415774595198</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653388</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371495</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380288</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>80.25061856046842</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37400,10 +37400,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,19 +37470,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681948</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>231.936431306898</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>343.9555362307195</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>294.0834769302979</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528635</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7873271384925</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565479</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,13 +37950,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>371.2794891934861</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
